--- a/ldas/data/items/list.xlsx
+++ b/ldas/data/items/list.xlsx
@@ -12949,7 +12949,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>横から見たオムツ姿の赤ちゃんのイラスト</t>
+          <t>Sample Item</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -12968,7 +12968,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-06-29T21:31:37+00:00</t>
+          <t>2022-06-30T11:32:54+00:00</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>横から見たオムツ姿の赤ちゃんのイラスト</t>
+          <t>Sample Item</t>
         </is>
       </c>
     </row>

--- a/ldas/data/items/list.xlsx
+++ b/ldas/data/items/list.xlsx
@@ -576,7 +576,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -643,7 +643,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -698,7 +698,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -753,7 +753,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -863,7 +863,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -918,7 +918,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -973,7 +973,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1083,7 +1083,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1138,7 +1138,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1193,7 +1193,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1248,7 +1248,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1303,7 +1303,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1358,7 +1358,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1413,7 +1413,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1468,7 +1468,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1523,7 +1523,7 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1578,7 +1578,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1633,7 +1633,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1688,7 +1688,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1743,7 +1743,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1798,7 +1798,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1853,7 +1853,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1908,7 +1908,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1963,7 +1963,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2018,7 +2018,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2073,7 +2073,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2128,7 +2128,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2183,7 +2183,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2238,7 +2238,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2293,7 +2293,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2348,7 +2348,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2403,7 +2403,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2458,7 +2458,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2568,7 +2568,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2678,7 +2678,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2733,7 +2733,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2788,7 +2788,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2843,7 +2843,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2898,7 +2898,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2953,7 +2953,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3008,7 +3008,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3063,7 +3063,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3118,7 +3118,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3173,7 +3173,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3228,7 +3228,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3283,7 +3283,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3338,7 +3338,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3393,7 +3393,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3448,7 +3448,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3503,7 +3503,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3558,7 +3558,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3613,7 +3613,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3668,7 +3668,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3723,7 +3723,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3778,7 +3778,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3833,7 +3833,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3888,7 +3888,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3943,7 +3943,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3998,7 +3998,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4053,7 +4053,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4163,7 +4163,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4218,7 +4218,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4273,7 +4273,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4328,7 +4328,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4383,7 +4383,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4438,7 +4438,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4493,7 +4493,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4548,7 +4548,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -4603,7 +4603,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4713,7 +4713,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4768,7 +4768,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -4823,7 +4823,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -4878,7 +4878,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -4933,7 +4933,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -4988,7 +4988,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -5043,7 +5043,7 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -5098,7 +5098,7 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -5153,7 +5153,7 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -5263,7 +5263,7 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -5318,7 +5318,7 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -5373,7 +5373,7 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -5428,7 +5428,7 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -5483,7 +5483,7 @@
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -5538,7 +5538,7 @@
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -5593,7 +5593,7 @@
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -5648,7 +5648,7 @@
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -5703,7 +5703,7 @@
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -5813,7 +5813,7 @@
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -5868,7 +5868,7 @@
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -5923,7 +5923,7 @@
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -5978,7 +5978,7 @@
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -6033,7 +6033,7 @@
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -6088,7 +6088,7 @@
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -6143,7 +6143,7 @@
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -6210,7 +6210,7 @@
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -6277,7 +6277,7 @@
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -6344,7 +6344,7 @@
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -6411,7 +6411,7 @@
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -6478,7 +6478,7 @@
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -6545,7 +6545,7 @@
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -6612,7 +6612,7 @@
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -6679,7 +6679,7 @@
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -6746,7 +6746,7 @@
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -6813,7 +6813,7 @@
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -6880,7 +6880,7 @@
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -6947,7 +6947,7 @@
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -7014,7 +7014,7 @@
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -7081,7 +7081,7 @@
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -7148,7 +7148,7 @@
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -7215,7 +7215,7 @@
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -7282,7 +7282,7 @@
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -7349,7 +7349,7 @@
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -7416,7 +7416,7 @@
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -7483,7 +7483,7 @@
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -7550,7 +7550,7 @@
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -7617,7 +7617,7 @@
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -7684,7 +7684,7 @@
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -7751,7 +7751,7 @@
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -7818,7 +7818,7 @@
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -7885,7 +7885,7 @@
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -7952,7 +7952,7 @@
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -8019,7 +8019,7 @@
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -8086,7 +8086,7 @@
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -8153,7 +8153,7 @@
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -8220,7 +8220,7 @@
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -8287,7 +8287,7 @@
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -8354,7 +8354,7 @@
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -8421,7 +8421,7 @@
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
@@ -8488,7 +8488,7 @@
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -8555,7 +8555,7 @@
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -8622,7 +8622,7 @@
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
@@ -8689,7 +8689,7 @@
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -8756,7 +8756,7 @@
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -8823,7 +8823,7 @@
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -8890,7 +8890,7 @@
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -8957,7 +8957,7 @@
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -9024,7 +9024,7 @@
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -9091,7 +9091,7 @@
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -9158,7 +9158,7 @@
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -9225,7 +9225,7 @@
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -9292,7 +9292,7 @@
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -9359,7 +9359,7 @@
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -9426,7 +9426,7 @@
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -9493,7 +9493,7 @@
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -9560,7 +9560,7 @@
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -9627,7 +9627,7 @@
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -9694,7 +9694,7 @@
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -9761,7 +9761,7 @@
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
@@ -9828,7 +9828,7 @@
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -9895,7 +9895,7 @@
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
@@ -9962,7 +9962,7 @@
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -10029,7 +10029,7 @@
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -10096,7 +10096,7 @@
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
@@ -10163,7 +10163,7 @@
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -10230,7 +10230,7 @@
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -10297,7 +10297,7 @@
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -10364,7 +10364,7 @@
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -10431,7 +10431,7 @@
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -10498,7 +10498,7 @@
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -10565,7 +10565,7 @@
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -10632,7 +10632,7 @@
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
@@ -10699,7 +10699,7 @@
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -10766,7 +10766,7 @@
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -10833,7 +10833,7 @@
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -10900,7 +10900,7 @@
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
@@ -10967,7 +10967,7 @@
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -11034,7 +11034,7 @@
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
@@ -11101,7 +11101,7 @@
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -11170,7 +11170,7 @@
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -11239,7 +11239,7 @@
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
@@ -11308,7 +11308,7 @@
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
@@ -11377,7 +11377,7 @@
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
@@ -11446,7 +11446,7 @@
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -11515,7 +11515,7 @@
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -11584,7 +11584,7 @@
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -11653,7 +11653,7 @@
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -11722,7 +11722,7 @@
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
@@ -11791,7 +11791,7 @@
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
@@ -11860,7 +11860,7 @@
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -11929,7 +11929,7 @@
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
@@ -11998,7 +11998,7 @@
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
@@ -12067,7 +12067,7 @@
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
@@ -12136,7 +12136,7 @@
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
@@ -12205,7 +12205,7 @@
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -12274,7 +12274,7 @@
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -12343,7 +12343,7 @@
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -12412,7 +12412,7 @@
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
@@ -12481,7 +12481,7 @@
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
@@ -12550,7 +12550,7 @@
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -12619,7 +12619,7 @@
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -12688,7 +12688,7 @@
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -12749,7 +12749,7 @@
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
@@ -12806,7 +12806,7 @@
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
@@ -12859,7 +12859,7 @@
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
@@ -12912,7 +12912,7 @@
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/1', 'o:id': 1}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">

--- a/ldas/data/items/list.xlsx
+++ b/ldas/data/items/list.xlsx
@@ -12923,7 +12923,9 @@
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>4</v>
+      </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
@@ -12932,7 +12934,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>post_69</t>
+          <t>sample-002</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -12968,7 +12970,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-06-30T11:32:54+00:00</t>
+          <t>2022-08-20T21:06:24+00:00</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -12992,7 +12994,9 @@
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
-      <c r="B206" t="inlineStr"/>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>

--- a/ldas/data/items/list.xlsx
+++ b/ldas/data/items/list.xlsx
@@ -576,7 +576,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -643,7 +643,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -698,7 +698,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -753,7 +753,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -863,7 +863,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -918,7 +918,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -973,7 +973,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1083,7 +1083,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1138,7 +1138,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1193,7 +1193,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1248,7 +1248,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1303,7 +1303,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1358,7 +1358,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1413,7 +1413,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1468,7 +1468,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1523,7 +1523,7 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1578,7 +1578,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1633,7 +1633,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1688,7 +1688,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1743,7 +1743,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1798,7 +1798,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1853,7 +1853,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1908,7 +1908,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1963,7 +1963,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2018,7 +2018,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2073,7 +2073,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2128,7 +2128,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2183,7 +2183,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2238,7 +2238,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2293,7 +2293,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2348,7 +2348,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2403,7 +2403,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2458,7 +2458,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2568,7 +2568,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2623,7 +2623,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2678,7 +2678,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2733,7 +2733,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2788,7 +2788,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2843,7 +2843,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2898,7 +2898,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2953,7 +2953,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3008,7 +3008,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3063,7 +3063,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3118,7 +3118,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3173,7 +3173,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3228,7 +3228,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3283,7 +3283,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3338,7 +3338,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3393,7 +3393,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3448,7 +3448,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3503,7 +3503,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3558,7 +3558,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3613,7 +3613,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3668,7 +3668,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3723,7 +3723,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3778,7 +3778,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3833,7 +3833,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3888,7 +3888,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3943,7 +3943,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3998,7 +3998,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4053,7 +4053,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4163,7 +4163,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4218,7 +4218,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4273,7 +4273,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4328,7 +4328,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4383,7 +4383,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4438,7 +4438,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4493,7 +4493,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4548,7 +4548,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -4603,7 +4603,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4713,7 +4713,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4768,7 +4768,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -4823,7 +4823,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -4878,7 +4878,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -4933,7 +4933,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -4988,7 +4988,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -5043,7 +5043,7 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -5098,7 +5098,7 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -5153,7 +5153,7 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -5263,7 +5263,7 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -5318,7 +5318,7 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -5373,7 +5373,7 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -5428,7 +5428,7 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -5483,7 +5483,7 @@
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -5538,7 +5538,7 @@
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -5593,7 +5593,7 @@
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -5648,7 +5648,7 @@
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -5703,7 +5703,7 @@
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -5813,7 +5813,7 @@
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -5868,7 +5868,7 @@
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -5923,7 +5923,7 @@
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -5978,7 +5978,7 @@
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -6033,7 +6033,7 @@
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -6088,7 +6088,7 @@
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -6143,7 +6143,7 @@
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -6210,7 +6210,7 @@
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -6277,7 +6277,7 @@
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -6344,7 +6344,7 @@
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -6411,7 +6411,7 @@
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -6478,7 +6478,7 @@
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -6545,7 +6545,7 @@
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -6612,7 +6612,7 @@
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -6679,7 +6679,7 @@
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -6746,7 +6746,7 @@
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -6813,7 +6813,7 @@
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -6880,7 +6880,7 @@
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -6947,7 +6947,7 @@
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -7014,7 +7014,7 @@
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -7081,7 +7081,7 @@
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -7148,7 +7148,7 @@
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -7215,7 +7215,7 @@
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -7282,7 +7282,7 @@
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -7349,7 +7349,7 @@
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -7416,7 +7416,7 @@
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -7483,7 +7483,7 @@
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -7550,7 +7550,7 @@
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -7617,7 +7617,7 @@
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -7684,7 +7684,7 @@
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -7751,7 +7751,7 @@
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -7818,7 +7818,7 @@
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -7885,7 +7885,7 @@
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -7952,7 +7952,7 @@
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -8019,7 +8019,7 @@
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -8086,7 +8086,7 @@
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -8153,7 +8153,7 @@
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -8220,7 +8220,7 @@
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -8287,7 +8287,7 @@
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -8354,7 +8354,7 @@
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -8421,7 +8421,7 @@
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
@@ -8488,7 +8488,7 @@
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -8555,7 +8555,7 @@
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -8622,7 +8622,7 @@
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
@@ -8689,7 +8689,7 @@
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -8756,7 +8756,7 @@
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -8823,7 +8823,7 @@
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -8890,7 +8890,7 @@
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -8957,7 +8957,7 @@
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -9024,7 +9024,7 @@
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -9091,7 +9091,7 @@
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -9158,7 +9158,7 @@
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -9225,7 +9225,7 @@
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -9292,7 +9292,7 @@
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -9359,7 +9359,7 @@
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -9426,7 +9426,7 @@
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -9493,7 +9493,7 @@
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -9560,7 +9560,7 @@
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -9627,7 +9627,7 @@
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -9694,7 +9694,7 @@
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -9761,7 +9761,7 @@
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
@@ -9828,7 +9828,7 @@
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -9895,7 +9895,7 @@
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
@@ -9962,7 +9962,7 @@
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -10029,7 +10029,7 @@
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -10096,7 +10096,7 @@
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
@@ -10163,7 +10163,7 @@
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -10230,7 +10230,7 @@
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -10297,7 +10297,7 @@
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -10364,7 +10364,7 @@
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -10431,7 +10431,7 @@
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -10498,7 +10498,7 @@
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -10565,7 +10565,7 @@
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -10632,7 +10632,7 @@
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
@@ -10699,7 +10699,7 @@
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -10766,7 +10766,7 @@
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -10833,7 +10833,7 @@
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -10900,7 +10900,7 @@
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
@@ -10967,7 +10967,7 @@
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -11034,7 +11034,7 @@
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
@@ -11101,7 +11101,7 @@
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -11170,7 +11170,7 @@
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -11239,7 +11239,7 @@
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
@@ -11308,7 +11308,7 @@
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
@@ -11377,7 +11377,7 @@
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
@@ -11446,7 +11446,7 @@
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -11515,7 +11515,7 @@
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -11584,7 +11584,7 @@
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -11653,7 +11653,7 @@
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -11722,7 +11722,7 @@
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
@@ -11791,7 +11791,7 @@
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
@@ -11860,7 +11860,7 @@
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -11929,7 +11929,7 @@
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
@@ -11998,7 +11998,7 @@
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
@@ -12067,7 +12067,7 @@
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
@@ -12136,7 +12136,7 @@
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
@@ -12205,7 +12205,7 @@
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -12274,7 +12274,7 @@
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -12343,7 +12343,7 @@
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -12412,7 +12412,7 @@
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
@@ -12481,7 +12481,7 @@
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
@@ -12550,7 +12550,7 @@
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -12619,7 +12619,7 @@
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -12688,7 +12688,7 @@
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/3', 'o:id': 3}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -12749,7 +12749,7 @@
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
@@ -12806,7 +12806,7 @@
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
@@ -12859,7 +12859,7 @@
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
@@ -12912,7 +12912,7 @@
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/sites/2', 'o:id': 2}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/6', 'o:id': 6}, {'@id': 'https://shared.ldas.jp/omeka-s/api/sites/7', 'o:id': 7}]</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">

--- a/ldas/data/items/list.xlsx
+++ b/ldas/data/items/list.xlsx
@@ -12924,7 +12924,7 @@
     <row r="205">
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>sample-002</t>
+          <t>test-111</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -12970,7 +12970,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-08-20T21:06:24+00:00</t>
+          <t>2022-09-01T01:13:17+00:00</t>
         </is>
       </c>
       <c r="P205" t="n">
